--- a/data/Olivar.xlsx
+++ b/data/Olivar.xlsx
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">

--- a/data/Olivar.xlsx
+++ b/data/Olivar.xlsx
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F63" t="n">

--- a/data/Olivar.xlsx
+++ b/data/Olivar.xlsx
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
